--- a/external_files/demowebshop_testdata.xlsx
+++ b/external_files/demowebshop_testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramya\PycharmProjects\POM-E18-Aug19-2025\external_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4126175D-E48F-4240-9C38-012E9581C014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14D4FA5-8C46-43B8-AF59-34FB46775FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="216" yWindow="36" windowWidth="18132" windowHeight="12000" xr2:uid="{3768ECBC-33BC-495C-933A-FCDA45085365}"/>
+    <workbookView xWindow="216" yWindow="0" windowWidth="18132" windowHeight="12336" activeTab="1" xr2:uid="{3768ECBC-33BC-495C-933A-FCDA45085365}"/>
   </bookViews>
   <sheets>
     <sheet name="reg" sheetId="1" r:id="rId1"/>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E732282-8776-4DAA-AB27-3594E0128FC2}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E857A94-8027-4B4E-89C8-F2017C91E44B}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
